--- a/capiq_data/in_process_data/IQ118315802.xlsx
+++ b/capiq_data/in_process_data/IQ118315802.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D990ECFA-80F2-453B-A0B2-5230EE107F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92FC4BD-6078-4E3B-BFE1-614CBD0E791D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"219b358b-c79f-4e45-809a-3ebf1245d0a3"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"cfb91426-033b-4dad-989c-b5f54a004c0b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$47</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$47</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$47</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$47</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$47</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$47</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$47</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$47</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$47</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$47</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$47</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$47</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$47</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$47</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$47</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$47</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$47</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$47</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$47</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$47</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$47</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$47</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$47</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$47</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$47</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$47</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +748,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>40086</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>16107</v>
+        <v>11163</v>
       </c>
       <c r="E2">
-        <v>4398</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>869</v>
+        <v>696</v>
       </c>
       <c r="G2">
-        <v>10056</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>23232</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6459</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2963</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +787,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>8620</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14988</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3897</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>40086</v>
       </c>
       <c r="S2">
-        <v>25946</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>8244</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1927</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-343</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-243</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-2138</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>230</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>40178</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>529</v>
+        <v>-52</v>
       </c>
       <c r="D3">
-        <v>16652</v>
+        <v>12141</v>
       </c>
       <c r="E3">
-        <v>4755</v>
+        <v>3543</v>
       </c>
       <c r="F3">
-        <v>1310</v>
+        <v>324</v>
       </c>
       <c r="G3">
-        <v>10580</v>
+        <v>7900</v>
       </c>
       <c r="H3">
-        <v>23777</v>
+        <v>21254</v>
       </c>
       <c r="I3">
-        <v>6766</v>
+        <v>5516</v>
       </c>
       <c r="J3">
-        <v>3028</v>
+        <v>2358</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +867,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-7972</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8282</v>
+        <v>6637</v>
       </c>
       <c r="O3">
-        <v>14741</v>
+        <v>12082</v>
       </c>
       <c r="P3">
-        <v>3328</v>
+        <v>2612</v>
       </c>
       <c r="Q3">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>40178</v>
       </c>
       <c r="S3">
-        <v>25803</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9036</v>
+        <v>9172</v>
       </c>
       <c r="U3">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="V3">
-        <v>915</v>
+        <v>685</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-330</v>
+        <v>-73</v>
       </c>
       <c r="Y3">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Z3">
-        <v>-361</v>
+        <v>-43</v>
       </c>
       <c r="AA3">
-        <v>529</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>40268</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>802</v>
+        <v>-289</v>
       </c>
       <c r="D4">
-        <v>19504</v>
+        <v>12158</v>
       </c>
       <c r="E4">
-        <v>5042</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1869</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>10513</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>23964</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7321</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3262</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -935,81 +950,81 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-407</v>
       </c>
       <c r="N4">
-        <v>8549</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14987</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3274</v>
+        <v>2612</v>
       </c>
       <c r="Q4">
-        <v>1403</v>
+        <v>18</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>40268</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>8977</v>
+        <v>9172</v>
       </c>
       <c r="U4">
-        <v>1622</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>37</v>
+        <v>-149</v>
       </c>
       <c r="W4">
-        <v>-699</v>
+        <v>-514</v>
       </c>
       <c r="X4">
-        <v>-1062</v>
+        <v>142</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2765</v>
+        <v>357</v>
       </c>
       <c r="AA4">
-        <v>802</v>
+        <v>-289</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>40359</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1133</v>
+        <v>405</v>
       </c>
       <c r="D5">
-        <v>19304</v>
+        <v>14497</v>
       </c>
       <c r="E5">
-        <v>4914</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2328</v>
+        <v>1176</v>
       </c>
       <c r="G5">
-        <v>11669</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>25225</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>6979</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3285</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1036,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>8612</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15176</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3299</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1335</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>40359</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>10049</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>2957</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1719</v>
+        <v>444</v>
       </c>
       <c r="W5">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-75</v>
+        <v>-239</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AA5">
-        <v>1133</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>40451</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-75</v>
+        <v>277</v>
       </c>
       <c r="D6">
-        <v>18123</v>
+        <v>14554</v>
       </c>
       <c r="E6">
-        <v>5461</v>
+        <v>4071</v>
       </c>
       <c r="F6">
-        <v>365</v>
+        <v>939</v>
       </c>
       <c r="G6">
-        <v>12001</v>
+        <v>8461</v>
       </c>
       <c r="H6">
-        <v>25745</v>
+        <v>21968</v>
       </c>
       <c r="I6">
-        <v>8189</v>
+        <v>5514</v>
       </c>
       <c r="J6">
-        <v>3292</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1119,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>9591</v>
+        <v>10434</v>
       </c>
       <c r="O6">
-        <v>16240</v>
+        <v>13483</v>
       </c>
       <c r="P6">
-        <v>3307</v>
+        <v>3788</v>
       </c>
       <c r="Q6">
-        <v>122</v>
+        <v>-37</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>40451</v>
       </c>
       <c r="S6">
-        <v>24210</v>
+        <v>25946</v>
       </c>
       <c r="T6">
-        <v>9505</v>
+        <v>8485</v>
       </c>
       <c r="U6">
-        <v>3079</v>
+        <v>117</v>
       </c>
       <c r="V6">
-        <v>638</v>
+        <v>-5</v>
       </c>
       <c r="W6">
-        <v>-173</v>
+        <v>-487</v>
       </c>
       <c r="X6">
-        <v>-176</v>
+        <v>258</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AA6">
-        <v>-75</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>40543</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>596</v>
+        <v>230</v>
       </c>
       <c r="D7">
-        <v>18891</v>
+        <v>16107</v>
       </c>
       <c r="E7">
-        <v>5867</v>
+        <v>4398</v>
       </c>
       <c r="F7">
-        <v>1507</v>
+        <v>869</v>
       </c>
       <c r="G7">
-        <v>11580</v>
+        <v>10056</v>
       </c>
       <c r="H7">
-        <v>25306</v>
+        <v>23232</v>
       </c>
       <c r="I7">
-        <v>7803</v>
+        <v>6459</v>
       </c>
       <c r="J7">
-        <v>3304</v>
+        <v>2963</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1199,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>9201</v>
+        <v>8620</v>
       </c>
       <c r="O7">
-        <v>16090</v>
+        <v>14988</v>
       </c>
       <c r="P7">
-        <v>3321</v>
+        <v>3897</v>
       </c>
       <c r="Q7">
-        <v>-874</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>40543</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>25946</v>
       </c>
       <c r="T7">
-        <v>9216</v>
+        <v>8244</v>
       </c>
       <c r="U7">
-        <v>2205</v>
+        <v>118</v>
       </c>
       <c r="V7">
-        <v>347</v>
+        <v>1927</v>
       </c>
       <c r="W7">
-        <v>-87</v>
+        <v>-343</v>
       </c>
       <c r="X7">
-        <v>-910</v>
+        <v>-243</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-2138</v>
       </c>
       <c r="AA7">
-        <v>596</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>40633</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>814</v>
+        <v>529</v>
       </c>
       <c r="D8">
-        <v>18819</v>
+        <v>16652</v>
       </c>
       <c r="E8">
-        <v>4708</v>
+        <v>4755</v>
       </c>
       <c r="F8">
-        <v>1962</v>
+        <v>1310</v>
       </c>
       <c r="G8">
-        <v>10706</v>
+        <v>10580</v>
       </c>
       <c r="H8">
-        <v>24681</v>
+        <v>23777</v>
       </c>
       <c r="I8">
-        <v>6155</v>
+        <v>6766</v>
       </c>
       <c r="J8">
-        <v>3316</v>
+        <v>3028</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,81 +1282,81 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-7972</v>
       </c>
       <c r="N8">
-        <v>7568</v>
+        <v>8282</v>
       </c>
       <c r="O8">
-        <v>14355</v>
+        <v>14741</v>
       </c>
       <c r="P8">
-        <v>3335</v>
+        <v>3328</v>
       </c>
       <c r="Q8">
-        <v>-310</v>
+        <v>101</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>40633</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>25803</v>
       </c>
       <c r="T8">
-        <v>10326</v>
+        <v>9036</v>
       </c>
       <c r="U8">
-        <v>1895</v>
+        <v>219</v>
       </c>
       <c r="V8">
-        <v>269</v>
+        <v>915</v>
       </c>
       <c r="W8">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-92</v>
+        <v>-330</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-361</v>
       </c>
       <c r="AA8">
-        <v>814</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40724</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1224</v>
+        <v>802</v>
       </c>
       <c r="D9">
-        <v>19592</v>
+        <v>19504</v>
       </c>
       <c r="E9">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="F9">
-        <v>2306</v>
+        <v>1869</v>
       </c>
       <c r="G9">
-        <v>12516</v>
+        <v>10513</v>
       </c>
       <c r="H9">
-        <v>26583</v>
+        <v>23964</v>
       </c>
       <c r="I9">
-        <v>6951</v>
+        <v>7321</v>
       </c>
       <c r="J9">
-        <v>3329</v>
+        <v>3262</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1368,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>8308</v>
+        <v>8549</v>
       </c>
       <c r="O9">
-        <v>15116</v>
+        <v>14987</v>
       </c>
       <c r="P9">
-        <v>3349</v>
+        <v>3274</v>
       </c>
       <c r="Q9">
-        <v>1492</v>
+        <v>1403</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40724</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>11467</v>
+        <v>8977</v>
       </c>
       <c r="U9">
-        <v>3387</v>
+        <v>1622</v>
       </c>
       <c r="V9">
-        <v>1833</v>
+        <v>37</v>
       </c>
       <c r="W9">
-        <v>-119</v>
+        <v>-699</v>
       </c>
       <c r="X9">
-        <v>-106</v>
+        <v>-1062</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>68</v>
+        <v>2765</v>
       </c>
       <c r="AA9">
-        <v>1224</v>
+        <v>802</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40816</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>755</v>
+        <v>1133</v>
       </c>
       <c r="D10">
-        <v>19266</v>
+        <v>19304</v>
       </c>
       <c r="E10">
-        <v>4610</v>
+        <v>4914</v>
       </c>
       <c r="F10">
-        <v>1845</v>
+        <v>2328</v>
       </c>
       <c r="G10">
-        <v>13029</v>
+        <v>11669</v>
       </c>
       <c r="H10">
-        <v>27223</v>
+        <v>25225</v>
       </c>
       <c r="I10">
-        <v>6785</v>
+        <v>6979</v>
       </c>
       <c r="J10">
-        <v>3342</v>
+        <v>3285</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1451,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8203</v>
+        <v>8612</v>
       </c>
       <c r="O10">
-        <v>15118</v>
+        <v>15176</v>
       </c>
       <c r="P10">
-        <v>3361</v>
+        <v>3299</v>
       </c>
       <c r="Q10">
-        <v>1473</v>
+        <v>1335</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40816</v>
       </c>
       <c r="S10">
-        <v>25985</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>12105</v>
+        <v>10049</v>
       </c>
       <c r="U10">
-        <v>4860</v>
+        <v>2957</v>
       </c>
       <c r="V10">
-        <v>2043</v>
+        <v>1719</v>
       </c>
       <c r="W10">
-        <v>-116</v>
+        <v>-71</v>
       </c>
       <c r="X10">
-        <v>-151</v>
+        <v>-75</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>755</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>40908</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>725</v>
+        <v>-75</v>
       </c>
       <c r="D11">
-        <v>21886</v>
+        <v>18123</v>
       </c>
       <c r="E11">
-        <v>5509</v>
+        <v>5461</v>
       </c>
       <c r="F11">
-        <v>1780</v>
+        <v>365</v>
       </c>
       <c r="G11">
-        <v>15297</v>
+        <v>12001</v>
       </c>
       <c r="H11">
-        <v>30773</v>
+        <v>25745</v>
       </c>
       <c r="I11">
-        <v>8872</v>
+        <v>8189</v>
       </c>
       <c r="J11">
-        <v>3394</v>
+        <v>3292</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1531,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10728</v>
+        <v>9591</v>
       </c>
       <c r="O11">
-        <v>18361</v>
+        <v>16240</v>
       </c>
       <c r="P11">
-        <v>3416</v>
+        <v>3307</v>
       </c>
       <c r="Q11">
-        <v>-123</v>
+        <v>122</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>40908</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>24210</v>
       </c>
       <c r="T11">
-        <v>12412</v>
+        <v>9505</v>
       </c>
       <c r="U11">
-        <v>4737</v>
+        <v>3079</v>
       </c>
       <c r="V11">
-        <v>2079</v>
+        <v>638</v>
       </c>
       <c r="W11">
-        <v>-116</v>
+        <v>-173</v>
       </c>
       <c r="X11">
-        <v>-520</v>
+        <v>-176</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>725</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>40999</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D12">
-        <v>24099</v>
+        <v>18891</v>
       </c>
       <c r="E12">
-        <v>6163</v>
+        <v>5867</v>
       </c>
       <c r="F12">
-        <v>1700</v>
+        <v>1507</v>
       </c>
       <c r="G12">
-        <v>14252</v>
+        <v>11580</v>
       </c>
       <c r="H12">
-        <v>29695</v>
+        <v>25306</v>
       </c>
       <c r="I12">
-        <v>8601</v>
+        <v>7803</v>
       </c>
       <c r="J12">
-        <v>3387</v>
+        <v>3304</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1614,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N12">
-        <v>10241</v>
+        <v>9201</v>
       </c>
       <c r="O12">
-        <v>17498</v>
+        <v>16090</v>
       </c>
       <c r="P12">
-        <v>3410</v>
+        <v>3321</v>
       </c>
       <c r="Q12">
-        <v>-1668</v>
+        <v>-874</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>40999</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>12197</v>
+        <v>9216</v>
       </c>
       <c r="U12">
-        <v>3069</v>
+        <v>2205</v>
       </c>
       <c r="V12">
-        <v>-436</v>
+        <v>347</v>
       </c>
       <c r="W12">
-        <v>-113</v>
+        <v>-87</v>
       </c>
       <c r="X12">
-        <v>-996</v>
+        <v>-910</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>41090</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>168</v>
+        <v>814</v>
       </c>
       <c r="D13">
-        <v>24633</v>
+        <v>18819</v>
       </c>
       <c r="E13">
-        <v>5591</v>
+        <v>4708</v>
       </c>
       <c r="F13">
-        <v>977</v>
+        <v>1962</v>
       </c>
       <c r="G13">
-        <v>13531</v>
+        <v>10706</v>
       </c>
       <c r="H13">
-        <v>29003</v>
+        <v>24681</v>
       </c>
       <c r="I13">
-        <v>8961</v>
+        <v>6155</v>
       </c>
       <c r="J13">
-        <v>3380</v>
+        <v>3316</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1700,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10401</v>
+        <v>7568</v>
       </c>
       <c r="O13">
-        <v>17739</v>
+        <v>14355</v>
       </c>
       <c r="P13">
-        <v>3403</v>
+        <v>3335</v>
       </c>
       <c r="Q13">
-        <v>-1051</v>
+        <v>-310</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>41090</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>11264</v>
+        <v>10326</v>
       </c>
       <c r="U13">
-        <v>2018</v>
+        <v>1895</v>
       </c>
       <c r="V13">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="W13">
-        <v>-129</v>
+        <v>-85</v>
       </c>
       <c r="X13">
-        <v>-1125</v>
+        <v>-92</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>168</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>41182</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>626</v>
+        <v>1224</v>
       </c>
       <c r="D14">
-        <v>23331</v>
+        <v>19592</v>
       </c>
       <c r="E14">
-        <v>5557</v>
+        <v>5101</v>
       </c>
       <c r="F14">
-        <v>1734</v>
+        <v>2306</v>
       </c>
       <c r="G14">
-        <v>12737</v>
+        <v>12516</v>
       </c>
       <c r="H14">
-        <v>28385</v>
+        <v>26583</v>
       </c>
       <c r="I14">
-        <v>8234</v>
+        <v>6951</v>
       </c>
       <c r="J14">
-        <v>3373</v>
+        <v>3329</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1783,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9824</v>
+        <v>8308</v>
       </c>
       <c r="O14">
-        <v>17053</v>
+        <v>15116</v>
       </c>
       <c r="P14">
-        <v>3396</v>
+        <v>3349</v>
       </c>
       <c r="Q14">
-        <v>274</v>
+        <v>1492</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>41182</v>
       </c>
       <c r="S14">
-        <v>29865</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>11332</v>
+        <v>11467</v>
       </c>
       <c r="U14">
-        <v>2292</v>
+        <v>3387</v>
       </c>
       <c r="V14">
-        <v>1355</v>
+        <v>1833</v>
       </c>
       <c r="W14">
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="X14">
-        <v>-576</v>
+        <v>-106</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-37</v>
+        <v>68</v>
       </c>
       <c r="AA14">
-        <v>626</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>41274</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>199</v>
+        <v>755</v>
       </c>
       <c r="D15">
-        <v>21794</v>
+        <v>19266</v>
       </c>
       <c r="E15">
-        <v>5415</v>
+        <v>4610</v>
       </c>
       <c r="F15">
-        <v>1095</v>
+        <v>1845</v>
       </c>
       <c r="G15">
-        <v>13448</v>
+        <v>13029</v>
       </c>
       <c r="H15">
-        <v>29159</v>
+        <v>27223</v>
       </c>
       <c r="I15">
-        <v>9313</v>
+        <v>6785</v>
       </c>
       <c r="J15">
-        <v>3635</v>
+        <v>3342</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1863,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10846</v>
+        <v>8203</v>
       </c>
       <c r="O15">
-        <v>18401</v>
+        <v>15118</v>
       </c>
       <c r="P15">
-        <v>3659</v>
+        <v>3361</v>
       </c>
       <c r="Q15">
-        <v>-126</v>
+        <v>1473</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>41274</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>25985</v>
       </c>
       <c r="T15">
-        <v>10758</v>
+        <v>12105</v>
       </c>
       <c r="U15">
-        <v>2166</v>
+        <v>4860</v>
       </c>
       <c r="V15">
-        <v>766</v>
+        <v>2043</v>
       </c>
       <c r="W15">
-        <v>-123</v>
+        <v>-116</v>
       </c>
       <c r="X15">
-        <v>-532</v>
+        <v>-151</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-123</v>
+        <v>-17</v>
       </c>
       <c r="AA15">
-        <v>199</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>41364</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>855</v>
+        <v>725</v>
       </c>
       <c r="D16">
-        <v>25277</v>
+        <v>21886</v>
       </c>
       <c r="E16">
-        <v>5722</v>
+        <v>5509</v>
       </c>
       <c r="F16">
-        <v>2051</v>
+        <v>1780</v>
       </c>
       <c r="G16">
-        <v>13596</v>
+        <v>15297</v>
       </c>
       <c r="H16">
-        <v>29376</v>
+        <v>30773</v>
       </c>
       <c r="I16">
-        <v>8934</v>
+        <v>8872</v>
       </c>
       <c r="J16">
-        <v>3612</v>
+        <v>3394</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +1946,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N16">
-        <v>11055</v>
+        <v>10728</v>
       </c>
       <c r="O16">
-        <v>18339</v>
+        <v>18361</v>
       </c>
       <c r="P16">
-        <v>3638</v>
+        <v>3416</v>
       </c>
       <c r="Q16">
-        <v>-41</v>
+        <v>-123</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>41364</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>11037</v>
+        <v>12412</v>
       </c>
       <c r="U16">
-        <v>2125</v>
+        <v>4737</v>
       </c>
       <c r="V16">
-        <v>878</v>
+        <v>2079</v>
       </c>
       <c r="W16">
-        <v>-122</v>
+        <v>-116</v>
       </c>
       <c r="X16">
-        <v>-598</v>
+        <v>-520</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-38</v>
+        <v>-21</v>
       </c>
       <c r="AA16">
-        <v>855</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>41455</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>672</v>
+        <v>593</v>
       </c>
       <c r="D17">
-        <v>23828</v>
+        <v>24099</v>
       </c>
       <c r="E17">
-        <v>5267</v>
+        <v>6163</v>
       </c>
       <c r="F17">
-        <v>1781</v>
+        <v>1700</v>
       </c>
       <c r="G17">
-        <v>12887</v>
+        <v>14252</v>
       </c>
       <c r="H17">
-        <v>31705</v>
+        <v>29695</v>
       </c>
       <c r="I17">
-        <v>8726</v>
+        <v>8601</v>
       </c>
       <c r="J17">
-        <v>6238</v>
+        <v>3387</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2032,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10372</v>
+        <v>10241</v>
       </c>
       <c r="O17">
-        <v>20439</v>
+        <v>17498</v>
       </c>
       <c r="P17">
-        <v>6264</v>
+        <v>3410</v>
       </c>
       <c r="Q17">
-        <v>-271</v>
+        <v>-1668</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>41455</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>11266</v>
+        <v>12197</v>
       </c>
       <c r="U17">
-        <v>1854</v>
+        <v>3069</v>
       </c>
       <c r="V17">
-        <v>1078</v>
+        <v>-436</v>
       </c>
       <c r="W17">
-        <v>-141</v>
+        <v>-113</v>
       </c>
       <c r="X17">
-        <v>1994</v>
+        <v>-996</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-177</v>
+        <v>11</v>
       </c>
       <c r="AA17">
-        <v>672</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>41547</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>798</v>
+        <v>168</v>
       </c>
       <c r="D18">
-        <v>20355</v>
+        <v>24633</v>
       </c>
       <c r="E18">
-        <v>4051</v>
+        <v>5591</v>
       </c>
       <c r="F18">
-        <v>2052</v>
+        <v>977</v>
       </c>
       <c r="G18">
-        <v>11339</v>
+        <v>13531</v>
       </c>
       <c r="H18">
-        <v>30425</v>
+        <v>29003</v>
       </c>
       <c r="I18">
-        <v>6661</v>
+        <v>8961</v>
       </c>
       <c r="J18">
-        <v>6575</v>
+        <v>3380</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2115,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>8579</v>
+        <v>10401</v>
       </c>
       <c r="O18">
-        <v>19035</v>
+        <v>17739</v>
       </c>
       <c r="P18">
-        <v>6602</v>
+        <v>3403</v>
       </c>
       <c r="Q18">
-        <v>-360</v>
+        <v>-1051</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>41547</v>
       </c>
       <c r="S18">
-        <v>45340</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>11390</v>
+        <v>11264</v>
       </c>
       <c r="U18">
-        <v>1494</v>
+        <v>2018</v>
       </c>
       <c r="V18">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="W18">
-        <v>-138</v>
+        <v>-129</v>
       </c>
       <c r="X18">
-        <v>-229</v>
+        <v>-1125</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-66</v>
+        <v>-27</v>
       </c>
       <c r="AA18">
-        <v>798</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>41639</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>891</v>
+        <v>626</v>
       </c>
       <c r="D19">
-        <v>15388</v>
+        <v>23331</v>
       </c>
       <c r="E19">
-        <v>3364</v>
+        <v>5557</v>
       </c>
       <c r="F19">
-        <v>2268</v>
+        <v>1734</v>
       </c>
       <c r="G19">
-        <v>11053</v>
+        <v>12737</v>
       </c>
       <c r="H19">
-        <v>30182</v>
+        <v>28385</v>
       </c>
       <c r="I19">
-        <v>5387</v>
+        <v>8234</v>
       </c>
       <c r="J19">
-        <v>5967</v>
+        <v>3373</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2195,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-421</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>8346</v>
+        <v>9824</v>
       </c>
       <c r="O19">
-        <v>18202</v>
+        <v>17053</v>
       </c>
       <c r="P19">
-        <v>6743</v>
+        <v>3396</v>
       </c>
       <c r="Q19">
-        <v>584</v>
+        <v>274</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>41639</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>29865</v>
       </c>
       <c r="T19">
-        <v>11980</v>
+        <v>11332</v>
       </c>
       <c r="U19">
-        <v>2078</v>
+        <v>2292</v>
       </c>
       <c r="V19">
-        <v>1190</v>
+        <v>1355</v>
       </c>
       <c r="W19">
-        <v>-136</v>
+        <v>-126</v>
       </c>
       <c r="X19">
-        <v>-218</v>
+        <v>-576</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-41</v>
+        <v>-37</v>
       </c>
       <c r="AA19">
-        <v>891</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41729</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>826</v>
+        <v>199</v>
       </c>
       <c r="D20">
-        <v>18623</v>
+        <v>21794</v>
       </c>
       <c r="E20">
-        <v>3875</v>
+        <v>5415</v>
       </c>
       <c r="F20">
-        <v>2175</v>
+        <v>1095</v>
       </c>
       <c r="G20">
-        <v>11431</v>
+        <v>13448</v>
       </c>
       <c r="H20">
-        <v>30653</v>
+        <v>29159</v>
       </c>
       <c r="I20">
-        <v>6225</v>
+        <v>9313</v>
       </c>
       <c r="J20">
-        <v>5918</v>
+        <v>3635</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,81 +2278,81 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="N20">
-        <v>8725</v>
+        <v>10846</v>
       </c>
       <c r="O20">
-        <v>18363</v>
+        <v>18401</v>
       </c>
       <c r="P20">
-        <v>6698</v>
+        <v>3659</v>
       </c>
       <c r="Q20">
-        <v>-197</v>
+        <v>-126</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41729</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>12290</v>
+        <v>10758</v>
       </c>
       <c r="U20">
-        <v>1881</v>
+        <v>2166</v>
       </c>
       <c r="V20">
-        <v>994</v>
+        <v>766</v>
       </c>
       <c r="W20">
-        <v>-136</v>
+        <v>-123</v>
       </c>
       <c r="X20">
-        <v>-723</v>
+        <v>-532</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-104</v>
+        <v>-123</v>
       </c>
       <c r="AA20">
-        <v>826</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>41820</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>948</v>
+        <v>855</v>
       </c>
       <c r="D21">
-        <v>16745</v>
+        <v>25277</v>
       </c>
       <c r="E21">
-        <v>3123</v>
+        <v>5722</v>
       </c>
       <c r="F21">
-        <v>2519</v>
+        <v>2051</v>
       </c>
       <c r="G21">
-        <v>10861</v>
+        <v>13596</v>
       </c>
       <c r="H21">
-        <v>30161</v>
+        <v>29376</v>
       </c>
       <c r="I21">
-        <v>4993</v>
+        <v>8934</v>
       </c>
       <c r="J21">
-        <v>5912</v>
+        <v>3612</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2364,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>7686</v>
+        <v>11055</v>
       </c>
       <c r="O21">
-        <v>17236</v>
+        <v>18339</v>
       </c>
       <c r="P21">
-        <v>6692</v>
+        <v>3638</v>
       </c>
       <c r="Q21">
-        <v>163</v>
+        <v>-41</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>41820</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>12925</v>
+        <v>11037</v>
       </c>
       <c r="U21">
-        <v>2044</v>
+        <v>2125</v>
       </c>
       <c r="V21">
-        <v>1069</v>
+        <v>878</v>
       </c>
       <c r="W21">
-        <v>-171</v>
+        <v>-122</v>
       </c>
       <c r="X21">
-        <v>-334</v>
+        <v>-598</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-72</v>
+        <v>-38</v>
       </c>
       <c r="AA21">
-        <v>948</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>41912</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>187</v>
+        <v>672</v>
       </c>
       <c r="D22">
-        <v>13715</v>
+        <v>23828</v>
       </c>
       <c r="E22">
-        <v>2917</v>
+        <v>5267</v>
       </c>
       <c r="F22">
-        <v>1248</v>
+        <v>1781</v>
       </c>
       <c r="G22">
-        <v>9471</v>
+        <v>12887</v>
       </c>
       <c r="H22">
-        <v>43115</v>
+        <v>31705</v>
       </c>
       <c r="I22">
-        <v>4743</v>
+        <v>8726</v>
       </c>
       <c r="J22">
-        <v>11896</v>
+        <v>6238</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,120 +2447,120 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6345</v>
+        <v>10372</v>
       </c>
       <c r="O22">
-        <v>23440</v>
+        <v>20439</v>
       </c>
       <c r="P22">
-        <v>11925</v>
+        <v>6264</v>
       </c>
       <c r="Q22">
-        <v>-917</v>
+        <v>-271</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>41912</v>
       </c>
       <c r="S22">
-        <v>45440</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>19675</v>
+        <v>11266</v>
       </c>
       <c r="U22">
-        <v>1127</v>
+        <v>1854</v>
       </c>
       <c r="V22">
-        <v>808</v>
+        <v>1078</v>
       </c>
       <c r="W22">
-        <v>-170</v>
+        <v>-141</v>
       </c>
       <c r="X22">
-        <v>288</v>
+        <v>1994</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-110</v>
+        <v>-177</v>
       </c>
       <c r="AA22">
-        <v>187</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>42004</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>798</v>
       </c>
       <c r="D23">
-        <v>10957</v>
+        <v>20355</v>
       </c>
       <c r="E23">
-        <v>2602</v>
+        <v>4051</v>
       </c>
       <c r="F23">
-        <v>1134</v>
+        <v>2052</v>
       </c>
       <c r="G23">
-        <v>8097</v>
+        <v>11339</v>
       </c>
       <c r="H23">
-        <v>41758</v>
+        <v>30425</v>
       </c>
       <c r="I23">
-        <v>4083</v>
+        <v>6661</v>
       </c>
       <c r="J23">
-        <v>11351</v>
+        <v>6575</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-76</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-1145</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>5595</v>
+        <v>8579</v>
       </c>
       <c r="O23">
-        <v>22264</v>
+        <v>19035</v>
       </c>
       <c r="P23">
-        <v>11566</v>
+        <v>6602</v>
       </c>
       <c r="Q23">
-        <v>-819</v>
+        <v>-360</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>42004</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>45340</v>
       </c>
       <c r="T23">
-        <v>19494</v>
+        <v>11390</v>
       </c>
       <c r="U23">
-        <v>308</v>
+        <v>1494</v>
       </c>
       <c r="V23">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="W23">
-        <v>-169</v>
+        <v>-138</v>
       </c>
       <c r="X23">
-        <v>-422</v>
+        <v>-229</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2569,39 @@
         <v>-66</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>42094</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>801</v>
+        <v>891</v>
       </c>
       <c r="D24">
-        <v>14947</v>
+        <v>15388</v>
       </c>
       <c r="E24">
-        <v>3189</v>
+        <v>3364</v>
       </c>
       <c r="F24">
-        <v>2378</v>
+        <v>2268</v>
       </c>
       <c r="G24">
-        <v>10304</v>
+        <v>11053</v>
       </c>
       <c r="H24">
-        <v>44133</v>
+        <v>30182</v>
       </c>
       <c r="I24">
-        <v>5214</v>
+        <v>5387</v>
       </c>
       <c r="J24">
-        <v>11032</v>
+        <v>5967</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,81 +2610,81 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-421</v>
       </c>
       <c r="N24">
-        <v>6782</v>
+        <v>8346</v>
       </c>
       <c r="O24">
-        <v>23205</v>
+        <v>18202</v>
       </c>
       <c r="P24">
-        <v>11059</v>
+        <v>6743</v>
       </c>
       <c r="Q24">
-        <v>1446</v>
+        <v>584</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>42094</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>20928</v>
+        <v>11980</v>
       </c>
       <c r="U24">
-        <v>1754</v>
+        <v>2078</v>
       </c>
       <c r="V24">
-        <v>2267</v>
+        <v>1190</v>
       </c>
       <c r="W24">
-        <v>-170</v>
+        <v>-136</v>
       </c>
       <c r="X24">
-        <v>-52</v>
+        <v>-218</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-104</v>
+        <v>-41</v>
       </c>
       <c r="AA24">
-        <v>801</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>42185</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>145</v>
+        <v>826</v>
       </c>
       <c r="D25">
-        <v>14753</v>
+        <v>18623</v>
       </c>
       <c r="E25">
-        <v>3129</v>
+        <v>3875</v>
       </c>
       <c r="F25">
-        <v>1681</v>
+        <v>2175</v>
       </c>
       <c r="G25">
-        <v>9545</v>
+        <v>11431</v>
       </c>
       <c r="H25">
-        <v>43293</v>
+        <v>30653</v>
       </c>
       <c r="I25">
-        <v>5055</v>
+        <v>6225</v>
       </c>
       <c r="J25">
-        <v>10538</v>
+        <v>5918</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2696,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>6340</v>
+        <v>8725</v>
       </c>
       <c r="O25">
-        <v>22336</v>
+        <v>18363</v>
       </c>
       <c r="P25">
-        <v>10566</v>
+        <v>6698</v>
       </c>
       <c r="Q25">
-        <v>-1045</v>
+        <v>-197</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>42185</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>20957</v>
+        <v>12290</v>
       </c>
       <c r="U25">
-        <v>709</v>
+        <v>1881</v>
       </c>
       <c r="V25">
-        <v>405</v>
+        <v>994</v>
       </c>
       <c r="W25">
-        <v>-190</v>
+        <v>-136</v>
       </c>
       <c r="X25">
-        <v>-729</v>
+        <v>-723</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-50</v>
+        <v>-104</v>
       </c>
       <c r="AA25">
-        <v>145</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>42277</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>227</v>
+        <v>948</v>
       </c>
       <c r="D26">
-        <v>15354</v>
+        <v>16745</v>
       </c>
       <c r="E26">
-        <v>3617</v>
+        <v>3123</v>
       </c>
       <c r="F26">
-        <v>1509</v>
+        <v>2519</v>
       </c>
       <c r="G26">
-        <v>10401</v>
+        <v>10861</v>
       </c>
       <c r="H26">
-        <v>44413</v>
+        <v>30161</v>
       </c>
       <c r="I26">
-        <v>5593</v>
+        <v>4993</v>
       </c>
       <c r="J26">
-        <v>10544</v>
+        <v>5912</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,244 +2779,244 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>7146</v>
+        <v>7686</v>
       </c>
       <c r="O26">
-        <v>23210</v>
+        <v>17236</v>
       </c>
       <c r="P26">
-        <v>10572</v>
+        <v>6692</v>
       </c>
       <c r="Q26">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>42277</v>
       </c>
       <c r="S26">
-        <v>44460</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>21203</v>
+        <v>12925</v>
       </c>
       <c r="U26">
-        <v>887</v>
+        <v>2044</v>
       </c>
       <c r="V26">
-        <v>993</v>
+        <v>1069</v>
       </c>
       <c r="W26">
-        <v>-190</v>
+        <v>-171</v>
       </c>
       <c r="X26">
-        <v>-91</v>
+        <v>-334</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-42</v>
+        <v>-72</v>
       </c>
       <c r="AA26">
-        <v>227</v>
+        <v>948</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>42369</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D27">
-        <v>16331</v>
+        <v>13715</v>
       </c>
       <c r="E27">
-        <v>3267</v>
+        <v>2917</v>
       </c>
       <c r="F27">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="G27">
-        <v>11042</v>
+        <v>9471</v>
       </c>
       <c r="H27">
-        <v>45821</v>
+        <v>43115</v>
       </c>
       <c r="I27">
-        <v>5343</v>
+        <v>4743</v>
       </c>
       <c r="J27">
-        <v>12570</v>
+        <v>11896</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>6866</v>
+        <v>6345</v>
       </c>
       <c r="O27">
-        <v>25024</v>
+        <v>23440</v>
       </c>
       <c r="P27">
-        <v>12598</v>
+        <v>11925</v>
       </c>
       <c r="Q27">
-        <v>1278</v>
+        <v>-917</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>42369</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>45440</v>
       </c>
       <c r="T27">
-        <v>20797</v>
+        <v>19675</v>
       </c>
       <c r="U27">
-        <v>2167</v>
+        <v>1127</v>
       </c>
       <c r="V27">
-        <v>1108</v>
+        <v>808</v>
       </c>
       <c r="W27">
-        <v>-190</v>
+        <v>-170</v>
       </c>
       <c r="X27">
-        <v>1523</v>
+        <v>288</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-546</v>
+        <v>-110</v>
       </c>
       <c r="AA27">
-        <v>30</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>42460</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>18264</v>
+        <v>10957</v>
       </c>
       <c r="E28">
-        <v>3256</v>
+        <v>2602</v>
       </c>
       <c r="F28">
-        <v>2013</v>
+        <v>1134</v>
       </c>
       <c r="G28">
-        <v>10443</v>
+        <v>8097</v>
       </c>
       <c r="H28">
-        <v>45447</v>
+        <v>41758</v>
       </c>
       <c r="I28">
-        <v>5307</v>
+        <v>4083</v>
       </c>
       <c r="J28">
-        <v>12577</v>
+        <v>11351</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-76</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-1145</v>
       </c>
       <c r="N28">
-        <v>6758</v>
+        <v>5595</v>
       </c>
       <c r="O28">
-        <v>24883</v>
+        <v>22264</v>
       </c>
       <c r="P28">
-        <v>12606</v>
+        <v>11566</v>
       </c>
       <c r="Q28">
-        <v>-716</v>
+        <v>-819</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>42460</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>20564</v>
+        <v>19494</v>
       </c>
       <c r="U28">
-        <v>1450</v>
+        <v>308</v>
       </c>
       <c r="V28">
-        <v>853</v>
+        <v>330</v>
       </c>
       <c r="W28">
-        <v>-186</v>
+        <v>-169</v>
       </c>
       <c r="X28">
-        <v>-910</v>
+        <v>-422</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-107</v>
+        <v>-66</v>
       </c>
       <c r="AA28">
-        <v>483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>42551</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>903</v>
+        <v>801</v>
       </c>
       <c r="D29">
-        <v>19302</v>
+        <v>14947</v>
       </c>
       <c r="E29">
-        <v>3896</v>
+        <v>3189</v>
       </c>
       <c r="F29">
-        <v>2537</v>
+        <v>2378</v>
       </c>
       <c r="G29">
-        <v>11631</v>
+        <v>10304</v>
       </c>
       <c r="H29">
-        <v>46806</v>
+        <v>44133</v>
       </c>
       <c r="I29">
-        <v>6159</v>
+        <v>5214</v>
       </c>
       <c r="J29">
-        <v>12753</v>
+        <v>11032</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3028,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>7647</v>
+        <v>6782</v>
       </c>
       <c r="O29">
-        <v>26004</v>
+        <v>23205</v>
       </c>
       <c r="P29">
-        <v>12782</v>
+        <v>11059</v>
       </c>
       <c r="Q29">
-        <v>641</v>
+        <v>1446</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>42551</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>20802</v>
+        <v>20928</v>
       </c>
       <c r="U29">
-        <v>2088</v>
+        <v>1754</v>
       </c>
       <c r="V29">
-        <v>1906</v>
+        <v>2267</v>
       </c>
       <c r="W29">
-        <v>-202</v>
+        <v>-170</v>
       </c>
       <c r="X29">
-        <v>-660</v>
+        <v>-52</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-17</v>
+        <v>-104</v>
       </c>
       <c r="AA29">
-        <v>903</v>
+        <v>801</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42643</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>2016</v>
+        <v>145</v>
       </c>
       <c r="D30">
-        <v>21156</v>
+        <v>14753</v>
       </c>
       <c r="E30">
-        <v>4695</v>
+        <v>3129</v>
       </c>
       <c r="F30">
-        <v>2151</v>
+        <v>1681</v>
       </c>
       <c r="G30">
-        <v>13401</v>
+        <v>9545</v>
       </c>
       <c r="H30">
-        <v>49047</v>
+        <v>43293</v>
       </c>
       <c r="I30">
-        <v>8297</v>
+        <v>5055</v>
       </c>
       <c r="J30">
-        <v>11959</v>
+        <v>10538</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3111,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>10478</v>
+        <v>6340</v>
       </c>
       <c r="O30">
-        <v>27219</v>
+        <v>22336</v>
       </c>
       <c r="P30">
-        <v>12946</v>
+        <v>10566</v>
       </c>
       <c r="Q30">
-        <v>920</v>
+        <v>-1045</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42643</v>
       </c>
       <c r="S30">
-        <v>43800</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>21828</v>
+        <v>20957</v>
       </c>
       <c r="U30">
-        <v>3011</v>
+        <v>709</v>
       </c>
       <c r="V30">
-        <v>2745</v>
+        <v>405</v>
       </c>
       <c r="W30">
-        <v>-195</v>
+        <v>-190</v>
       </c>
       <c r="X30">
-        <v>-1044</v>
+        <v>-729</v>
       </c>
       <c r="Y30">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-73</v>
+        <v>-50</v>
       </c>
       <c r="AA30">
-        <v>2016</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42735</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="D31">
-        <v>18896</v>
+        <v>15354</v>
       </c>
       <c r="E31">
-        <v>2945</v>
+        <v>3617</v>
       </c>
       <c r="F31">
-        <v>1385</v>
+        <v>1509</v>
       </c>
       <c r="G31">
-        <v>14525</v>
+        <v>10401</v>
       </c>
       <c r="H31">
-        <v>50364</v>
+        <v>44413</v>
       </c>
       <c r="I31">
-        <v>7066</v>
+        <v>5593</v>
       </c>
       <c r="J31">
-        <v>17232</v>
+        <v>10544</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,164 +3191,164 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-5264</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>8372</v>
+        <v>7146</v>
       </c>
       <c r="O31">
-        <v>30501</v>
+        <v>23210</v>
       </c>
       <c r="P31">
-        <v>17258</v>
+        <v>10572</v>
       </c>
       <c r="Q31">
-        <v>1642</v>
+        <v>178</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42735</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>44460</v>
       </c>
       <c r="T31">
-        <v>19863</v>
+        <v>21203</v>
       </c>
       <c r="U31">
-        <v>4653</v>
+        <v>887</v>
       </c>
       <c r="V31">
-        <v>-137</v>
+        <v>993</v>
       </c>
       <c r="W31">
-        <v>-219</v>
+        <v>-190</v>
       </c>
       <c r="X31">
-        <v>2557</v>
+        <v>-91</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-41</v>
+        <v>-42</v>
       </c>
       <c r="AA31">
-        <v>37</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>42825</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1055</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>22362</v>
+        <v>16331</v>
       </c>
       <c r="E32">
-        <v>3302</v>
+        <v>3267</v>
       </c>
       <c r="F32">
-        <v>2707</v>
+        <v>1263</v>
       </c>
       <c r="G32">
-        <v>15548</v>
+        <v>11042</v>
       </c>
       <c r="H32">
-        <v>51736</v>
+        <v>45821</v>
       </c>
       <c r="I32">
-        <v>8113</v>
+        <v>5343</v>
       </c>
       <c r="J32">
-        <v>17241</v>
+        <v>12570</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-207</v>
       </c>
       <c r="N32">
-        <v>9715</v>
+        <v>6866</v>
       </c>
       <c r="O32">
-        <v>31915</v>
+        <v>25024</v>
       </c>
       <c r="P32">
-        <v>17267</v>
+        <v>12598</v>
       </c>
       <c r="Q32">
-        <v>347</v>
+        <v>1278</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>42825</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>19821</v>
+        <v>20797</v>
       </c>
       <c r="U32">
-        <v>4999</v>
+        <v>2167</v>
       </c>
       <c r="V32">
-        <v>2386</v>
+        <v>1108</v>
       </c>
       <c r="W32">
-        <v>-211</v>
+        <v>-190</v>
       </c>
       <c r="X32">
-        <v>-1299</v>
+        <v>1523</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-62</v>
+        <v>-546</v>
       </c>
       <c r="AA32">
-        <v>1055</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>42916</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>737</v>
+        <v>483</v>
       </c>
       <c r="D33">
-        <v>23035</v>
+        <v>18264</v>
       </c>
       <c r="E33">
-        <v>3576</v>
+        <v>3256</v>
       </c>
       <c r="F33">
-        <v>2429</v>
+        <v>2013</v>
       </c>
       <c r="G33">
-        <v>15873</v>
+        <v>10443</v>
       </c>
       <c r="H33">
-        <v>53031</v>
+        <v>45447</v>
       </c>
       <c r="I33">
-        <v>8016</v>
+        <v>5307</v>
       </c>
       <c r="J33">
-        <v>18423</v>
+        <v>12577</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3360,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>9634</v>
+        <v>6758</v>
       </c>
       <c r="O33">
-        <v>32997</v>
+        <v>24883</v>
       </c>
       <c r="P33">
-        <v>18449</v>
+        <v>12606</v>
       </c>
       <c r="Q33">
-        <v>-9</v>
+        <v>-716</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>42916</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>20034</v>
+        <v>20564</v>
       </c>
       <c r="U33">
-        <v>4992</v>
+        <v>1450</v>
       </c>
       <c r="V33">
-        <v>1182</v>
+        <v>853</v>
       </c>
       <c r="W33">
-        <v>-207</v>
+        <v>-186</v>
       </c>
       <c r="X33">
-        <v>186</v>
+        <v>-910</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-103</v>
+        <v>-107</v>
       </c>
       <c r="AA33">
-        <v>737</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>43008</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>951</v>
+        <v>903</v>
       </c>
       <c r="D34">
-        <v>32413</v>
+        <v>19302</v>
       </c>
       <c r="E34">
-        <v>5853</v>
+        <v>3896</v>
       </c>
       <c r="F34">
-        <v>4119</v>
+        <v>2537</v>
       </c>
       <c r="G34">
-        <v>18023</v>
+        <v>11631</v>
       </c>
       <c r="H34">
-        <v>92940</v>
+        <v>46806</v>
       </c>
       <c r="I34">
-        <v>9366</v>
+        <v>6159</v>
       </c>
       <c r="J34">
-        <v>26401</v>
+        <v>12753</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3443,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>13216</v>
+        <v>7647</v>
       </c>
       <c r="O34">
-        <v>47887</v>
+        <v>26004</v>
       </c>
       <c r="P34">
-        <v>27524</v>
+        <v>12782</v>
       </c>
       <c r="Q34">
-        <v>-3270</v>
+        <v>641</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>43008</v>
       </c>
       <c r="S34">
-        <v>60350</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>45053</v>
+        <v>20802</v>
       </c>
       <c r="U34">
-        <v>1687</v>
+        <v>2088</v>
       </c>
       <c r="V34">
-        <v>2727</v>
+        <v>1906</v>
       </c>
       <c r="W34">
-        <v>-317</v>
+        <v>-202</v>
       </c>
       <c r="X34">
-        <v>-1222</v>
+        <v>-660</v>
       </c>
       <c r="Y34">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-187</v>
+        <v>-17</v>
       </c>
       <c r="AA34">
-        <v>951</v>
+        <v>903</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>43100</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-7</v>
+        <v>2016</v>
       </c>
       <c r="D35">
-        <v>28288</v>
+        <v>21156</v>
       </c>
       <c r="E35">
-        <v>4837</v>
+        <v>4695</v>
       </c>
       <c r="F35">
-        <v>2328</v>
+        <v>2151</v>
       </c>
       <c r="G35">
-        <v>18151</v>
+        <v>13401</v>
       </c>
       <c r="H35">
-        <v>96436</v>
+        <v>49047</v>
       </c>
       <c r="I35">
-        <v>10568</v>
+        <v>8297</v>
       </c>
       <c r="J35">
-        <v>26953</v>
+        <v>11959</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3523,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-2031</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>15147</v>
+        <v>10478</v>
       </c>
       <c r="O35">
-        <v>52574</v>
+        <v>27219</v>
       </c>
       <c r="P35">
-        <v>30881</v>
+        <v>12946</v>
       </c>
       <c r="Q35">
-        <v>-817</v>
+        <v>920</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>43100</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>43800</v>
       </c>
       <c r="T35">
-        <v>43862</v>
+        <v>21828</v>
       </c>
       <c r="U35">
-        <v>877</v>
+        <v>3011</v>
       </c>
       <c r="V35">
-        <v>1623</v>
+        <v>2745</v>
       </c>
       <c r="W35">
-        <v>-354</v>
+        <v>-195</v>
       </c>
       <c r="X35">
-        <v>-920</v>
+        <v>-1044</v>
       </c>
       <c r="Y35">
-        <v>2765</v>
+        <v>363</v>
       </c>
       <c r="Z35">
-        <v>-323</v>
+        <v>-73</v>
       </c>
       <c r="AA35">
-        <v>-7</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43190</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>18896</v>
       </c>
       <c r="E36">
-        <v>5393</v>
+        <v>2945</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="G36">
-        <v>18396</v>
+        <v>14525</v>
       </c>
       <c r="H36">
-        <v>96896</v>
+        <v>50364</v>
       </c>
       <c r="I36">
-        <v>10905</v>
+        <v>7066</v>
       </c>
       <c r="J36">
-        <v>27249</v>
+        <v>17232</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3591,81 +3606,81 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-5264</v>
       </c>
       <c r="N36">
-        <v>14890</v>
+        <v>8372</v>
       </c>
       <c r="O36">
-        <v>52830</v>
+        <v>30501</v>
       </c>
       <c r="P36">
-        <v>31090</v>
+        <v>17258</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1642</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>43190</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>44066</v>
+        <v>19863</v>
       </c>
       <c r="U36">
-        <v>1247</v>
+        <v>4653</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>-137</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-219</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="Y36">
-        <v>2672</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>43281</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="D37">
-        <v>27582</v>
+        <v>22362</v>
       </c>
       <c r="E37">
-        <v>5211</v>
+        <v>3302</v>
       </c>
       <c r="F37">
-        <v>3237</v>
+        <v>2707</v>
       </c>
       <c r="G37">
-        <v>19139</v>
+        <v>15548</v>
       </c>
       <c r="H37">
-        <v>98139</v>
+        <v>51736</v>
       </c>
       <c r="I37">
-        <v>11380</v>
+        <v>8113</v>
       </c>
       <c r="J37">
-        <v>27628</v>
+        <v>17241</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3692,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>15339</v>
+        <v>9715</v>
       </c>
       <c r="O37">
-        <v>54515</v>
+        <v>31915</v>
       </c>
       <c r="P37">
-        <v>31387</v>
+        <v>17267</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>43281</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>43624</v>
+        <v>19821</v>
       </c>
       <c r="U37">
-        <v>1525</v>
+        <v>4999</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>2386</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>-211</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>-1299</v>
       </c>
       <c r="Y37">
-        <v>2616</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="AA37">
-        <v>1095</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>43373</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>443</v>
+        <v>737</v>
       </c>
       <c r="D38">
-        <v>28042</v>
+        <v>23035</v>
       </c>
       <c r="E38">
-        <v>7233</v>
+        <v>3576</v>
       </c>
       <c r="F38">
-        <v>3440</v>
+        <v>2429</v>
       </c>
       <c r="G38">
-        <v>30458</v>
+        <v>15873</v>
       </c>
       <c r="H38">
-        <v>98556</v>
+        <v>53031</v>
       </c>
       <c r="I38">
-        <v>11222</v>
+        <v>8016</v>
       </c>
       <c r="J38">
-        <v>27483</v>
+        <v>18423</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3775,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>16948</v>
+        <v>9634</v>
       </c>
       <c r="O38">
-        <v>55449</v>
+        <v>32997</v>
       </c>
       <c r="P38">
-        <v>30538</v>
+        <v>18449</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>43373</v>
       </c>
       <c r="S38">
-        <v>60910</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>43107</v>
+        <v>20034</v>
       </c>
       <c r="U38">
-        <v>1393</v>
+        <v>4992</v>
       </c>
       <c r="V38">
-        <v>2409</v>
+        <v>1182</v>
       </c>
       <c r="W38">
-        <v>-344</v>
+        <v>-207</v>
       </c>
       <c r="X38">
-        <v>-722</v>
+        <v>186</v>
       </c>
       <c r="Y38">
-        <v>1837</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-249</v>
+        <v>-103</v>
       </c>
       <c r="AA38">
-        <v>443</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>43465</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-9234</v>
+        <v>951</v>
       </c>
       <c r="D39">
-        <v>25286</v>
+        <v>32413</v>
       </c>
       <c r="E39">
-        <v>3253</v>
+        <v>5853</v>
       </c>
       <c r="F39">
-        <v>-755</v>
+        <v>4119</v>
       </c>
       <c r="G39">
-        <v>15693</v>
+        <v>18023</v>
       </c>
       <c r="H39">
-        <v>86317</v>
+        <v>92940</v>
       </c>
       <c r="I39">
-        <v>8106</v>
+        <v>9366</v>
       </c>
       <c r="J39">
-        <v>29193</v>
+        <v>26401</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3855,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1521</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>13569</v>
+        <v>13216</v>
       </c>
       <c r="O39">
-        <v>54121</v>
+        <v>47887</v>
       </c>
       <c r="P39">
-        <v>34188</v>
+        <v>27524</v>
       </c>
       <c r="Q39">
-        <v>165</v>
+        <v>-3270</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>43465</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>60350</v>
       </c>
       <c r="T39">
-        <v>32196</v>
+        <v>45053</v>
       </c>
       <c r="U39">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="V39">
-        <v>-768</v>
+        <v>2727</v>
       </c>
       <c r="W39">
-        <v>-377</v>
+        <v>-317</v>
       </c>
       <c r="X39">
-        <v>2021</v>
+        <v>-1222</v>
       </c>
       <c r="Y39">
-        <v>2655</v>
+        <v>579</v>
       </c>
       <c r="Z39">
-        <v>-92</v>
+        <v>-187</v>
       </c>
       <c r="AA39">
-        <v>-9234</v>
+        <v>951</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>28288</v>
       </c>
       <c r="E40">
-        <v>3351</v>
+        <v>4837</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2328</v>
       </c>
       <c r="G40">
-        <v>14643</v>
+        <v>18151</v>
       </c>
       <c r="H40">
-        <v>84593</v>
+        <v>96436</v>
       </c>
       <c r="I40">
-        <v>6110</v>
+        <v>10568</v>
       </c>
       <c r="J40">
-        <v>29755</v>
+        <v>26953</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3923,54 +3938,54 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-2031</v>
       </c>
       <c r="N40">
-        <v>11504</v>
+        <v>15147</v>
       </c>
       <c r="O40">
-        <v>52776</v>
+        <v>52574</v>
       </c>
       <c r="P40">
-        <v>34641</v>
+        <v>30881</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-817</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>31817</v>
+        <v>43862</v>
       </c>
       <c r="U40">
-        <v>1091</v>
+        <v>877</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1623</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-354</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>-920</v>
       </c>
       <c r="Y40">
-        <v>2546</v>
+        <v>2765</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-323</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43646</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
@@ -3979,25 +3994,25 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>17430</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>3321</v>
+        <v>5393</v>
       </c>
       <c r="F41">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>26200</v>
+        <v>18396</v>
       </c>
       <c r="H41">
-        <v>84020</v>
+        <v>96896</v>
       </c>
       <c r="I41">
-        <v>6701</v>
+        <v>10905</v>
       </c>
       <c r="J41">
-        <v>28752</v>
+        <v>27249</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>14246</v>
+        <v>14890</v>
       </c>
       <c r="O41">
-        <v>53506</v>
+        <v>52830</v>
       </c>
       <c r="P41">
-        <v>33524</v>
+        <v>31090</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43646</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>30514</v>
+        <v>44066</v>
       </c>
       <c r="U41">
-        <v>618</v>
+        <v>1247</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4042,95 +4057,510 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>1741</v>
+        <v>2672</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43738</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>27582</v>
+      </c>
+      <c r="E42">
+        <v>5211</v>
+      </c>
+      <c r="F42">
+        <v>3237</v>
+      </c>
+      <c r="G42">
+        <v>19139</v>
+      </c>
+      <c r="H42">
+        <v>98139</v>
+      </c>
+      <c r="I42">
+        <v>11380</v>
+      </c>
+      <c r="J42">
+        <v>27628</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>15339</v>
+      </c>
+      <c r="O42">
+        <v>54515</v>
+      </c>
+      <c r="P42">
+        <v>31387</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>43738</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>43624</v>
+      </c>
+      <c r="U42">
+        <v>1525</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>2616</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>443</v>
+      </c>
+      <c r="D43">
+        <v>28042</v>
+      </c>
+      <c r="E43">
+        <v>7233</v>
+      </c>
+      <c r="F43">
+        <v>3440</v>
+      </c>
+      <c r="G43">
+        <v>30458</v>
+      </c>
+      <c r="H43">
+        <v>98556</v>
+      </c>
+      <c r="I43">
+        <v>11222</v>
+      </c>
+      <c r="J43">
+        <v>27483</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>16948</v>
+      </c>
+      <c r="O43">
+        <v>55449</v>
+      </c>
+      <c r="P43">
+        <v>30538</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>43830</v>
+      </c>
+      <c r="S43">
+        <v>60910</v>
+      </c>
+      <c r="T43">
+        <v>43107</v>
+      </c>
+      <c r="U43">
+        <v>1393</v>
+      </c>
+      <c r="V43">
+        <v>2409</v>
+      </c>
+      <c r="W43">
+        <v>-344</v>
+      </c>
+      <c r="X43">
+        <v>-722</v>
+      </c>
+      <c r="Y43">
+        <v>1837</v>
+      </c>
+      <c r="Z43">
+        <v>-249</v>
+      </c>
+      <c r="AA43">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-9234</v>
+      </c>
+      <c r="D44">
+        <v>25286</v>
+      </c>
+      <c r="E44">
+        <v>3253</v>
+      </c>
+      <c r="F44">
+        <v>-755</v>
+      </c>
+      <c r="G44">
+        <v>15693</v>
+      </c>
+      <c r="H44">
+        <v>86317</v>
+      </c>
+      <c r="I44">
+        <v>8106</v>
+      </c>
+      <c r="J44">
+        <v>29193</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-1521</v>
+      </c>
+      <c r="N44">
+        <v>13569</v>
+      </c>
+      <c r="O44">
+        <v>54121</v>
+      </c>
+      <c r="P44">
+        <v>34188</v>
+      </c>
+      <c r="Q44">
+        <v>165</v>
+      </c>
+      <c r="R44">
+        <v>43921</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>32196</v>
+      </c>
+      <c r="U44">
+        <v>1690</v>
+      </c>
+      <c r="V44">
+        <v>-768</v>
+      </c>
+      <c r="W44">
+        <v>-377</v>
+      </c>
+      <c r="X44">
+        <v>2021</v>
+      </c>
+      <c r="Y44">
+        <v>2655</v>
+      </c>
+      <c r="Z44">
+        <v>-92</v>
+      </c>
+      <c r="AA44">
+        <v>-9234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>3351</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>14643</v>
+      </c>
+      <c r="H45">
+        <v>84593</v>
+      </c>
+      <c r="I45">
+        <v>6110</v>
+      </c>
+      <c r="J45">
+        <v>29755</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>11504</v>
+      </c>
+      <c r="O45">
+        <v>52776</v>
+      </c>
+      <c r="P45">
+        <v>34641</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>44012</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>31817</v>
+      </c>
+      <c r="U45">
+        <v>1091</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>2546</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>17430</v>
+      </c>
+      <c r="E46">
+        <v>3321</v>
+      </c>
+      <c r="F46">
+        <v>1287</v>
+      </c>
+      <c r="G46">
+        <v>26200</v>
+      </c>
+      <c r="H46">
+        <v>84020</v>
+      </c>
+      <c r="I46">
+        <v>6701</v>
+      </c>
+      <c r="J46">
+        <v>28752</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>14246</v>
+      </c>
+      <c r="O46">
+        <v>53506</v>
+      </c>
+      <c r="P46">
+        <v>33524</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>44104</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>30514</v>
+      </c>
+      <c r="U46">
+        <v>618</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>1741</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>-886</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
         <v>285</v>
       </c>
-      <c r="D42">
+      <c r="D47">
         <v>18021</v>
       </c>
-      <c r="E42">
+      <c r="E47">
         <v>3680</v>
       </c>
-      <c r="F42">
+      <c r="F47">
         <v>1990</v>
       </c>
-      <c r="G42">
+      <c r="G47">
         <v>28287</v>
       </c>
-      <c r="H42">
+      <c r="H47">
         <v>85158</v>
       </c>
-      <c r="I42">
+      <c r="I47">
         <v>7803</v>
       </c>
-      <c r="J42">
+      <c r="J47">
         <v>28154</v>
       </c>
-      <c r="K42">
+      <c r="K47">
         <v>1024</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
         <v>15663</v>
       </c>
-      <c r="O42">
+      <c r="O47">
         <v>54938</v>
       </c>
-      <c r="P42">
+      <c r="P47">
         <v>33095</v>
       </c>
-      <c r="Q42">
+      <c r="Q47">
         <v>-162</v>
       </c>
-      <c r="R42">
+      <c r="R47">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S47">
         <v>57900</v>
       </c>
-      <c r="T42">
+      <c r="T47">
         <v>30220</v>
       </c>
-      <c r="U42">
+      <c r="U47">
         <v>415</v>
       </c>
-      <c r="V42">
+      <c r="V47">
         <v>1328</v>
       </c>
-      <c r="W42">
+      <c r="W47">
         <v>-377</v>
       </c>
-      <c r="X42">
+      <c r="X47">
         <v>-1057</v>
       </c>
-      <c r="Y42">
+      <c r="Y47">
         <v>1590</v>
       </c>
-      <c r="Z42">
+      <c r="Z47">
         <v>-34</v>
       </c>
-      <c r="AA42">
+      <c r="AA47">
         <v>285</v>
       </c>
     </row>
